--- a/aug_pc_result/2026_Feb_14_15_07_46_d_separation_kci_pc_gt_graph_AdaSyn_150_2828862/aug_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_14_15_07_46_d_separation_kci_pc_gt_graph_AdaSyn_150_2828862/aug_pc_raw_eval_res.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Feb_14_15_07_46_d_separation_kci_pc_gt_graph_AdaSyn_150_2828862\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9682F-926B-4AC4-9202-2725289ECD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA27F48-C56F-4183-AD4C-BAFABB00EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$513</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -511,10 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="AA2" sqref="A2:AA513"/>
+    <sheetView tabSelected="1" topLeftCell="C437" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:AA513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -611,7 +615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -694,7 +698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -777,7 +781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -860,7 +864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -943,7 +947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -4678,7 +4682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -4844,7 +4848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4927,7 +4931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -5425,7 +5429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -6587,7 +6591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -6919,7 +6923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -7251,7 +7255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -7417,7 +7421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -7500,7 +7504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -7666,7 +7670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -7749,7 +7753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -7998,7 +8002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -8247,7 +8251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -8496,7 +8500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -8662,7 +8666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -8911,7 +8915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -8994,7 +8998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -9160,7 +9164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -9575,7 +9579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -10156,7 +10160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -10239,7 +10243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>30</v>
       </c>
@@ -10488,7 +10492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -10903,7 +10907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>30</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -11152,7 +11156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -11401,7 +11405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -11733,7 +11737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -12397,7 +12401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -12563,7 +12567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -12729,7 +12733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -13559,7 +13563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -13725,7 +13729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -13891,7 +13895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>30</v>
       </c>
@@ -14389,7 +14393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>30</v>
       </c>
@@ -14887,7 +14891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -15053,7 +15057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -15219,7 +15223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>30</v>
       </c>
@@ -15385,7 +15389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -15551,7 +15555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -15883,7 +15887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -16049,7 +16053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>30</v>
       </c>
@@ -16215,7 +16219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>30</v>
       </c>
@@ -16381,7 +16385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>30</v>
       </c>
@@ -16547,7 +16551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>30</v>
       </c>
@@ -16713,7 +16717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>30</v>
       </c>
@@ -16879,7 +16883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>30</v>
       </c>
@@ -17045,7 +17049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -17211,7 +17215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>30</v>
       </c>
@@ -17377,7 +17381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -17543,7 +17547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -17709,7 +17713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>30</v>
       </c>
@@ -17875,7 +17879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>30</v>
       </c>
@@ -18041,7 +18045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -18207,7 +18211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -18373,7 +18377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>30</v>
       </c>
@@ -18539,7 +18543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -18705,7 +18709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -18871,7 +18875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>30</v>
       </c>
@@ -19037,7 +19041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>30</v>
       </c>
@@ -19203,7 +19207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>30</v>
       </c>
@@ -19369,7 +19373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>30</v>
       </c>
@@ -19701,7 +19705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -19867,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>30</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -20199,7 +20203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -20365,7 +20369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -20531,7 +20535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -20697,7 +20701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>30</v>
       </c>
@@ -20863,7 +20867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -21029,7 +21033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>30</v>
       </c>
@@ -21195,7 +21199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -21361,7 +21365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -21527,7 +21531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -21693,7 +21697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -21859,7 +21863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>39</v>
       </c>
@@ -21942,7 +21946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>39</v>
       </c>
@@ -22025,7 +22029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>39</v>
       </c>
@@ -22108,7 +22112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>39</v>
       </c>
@@ -22191,7 +22195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>39</v>
       </c>
@@ -22274,7 +22278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>39</v>
       </c>
@@ -22357,7 +22361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>39</v>
       </c>
@@ -22440,7 +22444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>39</v>
       </c>
@@ -22523,7 +22527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>39</v>
       </c>
@@ -22606,7 +22610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -22689,7 +22693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>39</v>
       </c>
@@ -22772,7 +22776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>39</v>
       </c>
@@ -22855,7 +22859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>39</v>
       </c>
@@ -22938,7 +22942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -23021,7 +23025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -23104,7 +23108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -23187,7 +23191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -23270,7 +23274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>39</v>
       </c>
@@ -23353,7 +23357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>39</v>
       </c>
@@ -23436,7 +23440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>39</v>
       </c>
@@ -23519,7 +23523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>39</v>
       </c>
@@ -23602,7 +23606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>39</v>
       </c>
@@ -23685,7 +23689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -23768,7 +23772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>39</v>
       </c>
@@ -23851,7 +23855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -23934,7 +23938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>39</v>
       </c>
@@ -24017,7 +24021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>39</v>
       </c>
@@ -24100,7 +24104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>39</v>
       </c>
@@ -24183,7 +24187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>39</v>
       </c>
@@ -24266,7 +24270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>39</v>
       </c>
@@ -24349,7 +24353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>39</v>
       </c>
@@ -24432,7 +24436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>39</v>
       </c>
@@ -24515,7 +24519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>39</v>
       </c>
@@ -24598,7 +24602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -24681,7 +24685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -24764,7 +24768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>39</v>
       </c>
@@ -24847,7 +24851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>39</v>
       </c>
@@ -24930,7 +24934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>39</v>
       </c>
@@ -25013,7 +25017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -25096,7 +25100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>39</v>
       </c>
@@ -25179,7 +25183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>39</v>
       </c>
@@ -25262,7 +25266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>39</v>
       </c>
@@ -25345,7 +25349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>39</v>
       </c>
@@ -25428,7 +25432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>39</v>
       </c>
@@ -25511,7 +25515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>39</v>
       </c>
@@ -25594,7 +25598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>39</v>
       </c>
@@ -25677,7 +25681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>39</v>
       </c>
@@ -25760,7 +25764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>39</v>
       </c>
@@ -25843,7 +25847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>39</v>
       </c>
@@ -25926,7 +25930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>39</v>
       </c>
@@ -26009,7 +26013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>39</v>
       </c>
@@ -26092,7 +26096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>39</v>
       </c>
@@ -26175,7 +26179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>39</v>
       </c>
@@ -26258,7 +26262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>39</v>
       </c>
@@ -26341,7 +26345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>39</v>
       </c>
@@ -26424,7 +26428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>39</v>
       </c>
@@ -26507,7 +26511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>39</v>
       </c>
@@ -26590,7 +26594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -26673,7 +26677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>39</v>
       </c>
@@ -26756,7 +26760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>39</v>
       </c>
@@ -26839,7 +26843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>39</v>
       </c>
@@ -26922,7 +26926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>39</v>
       </c>
@@ -27005,7 +27009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>39</v>
       </c>
@@ -27088,7 +27092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>39</v>
       </c>
@@ -27171,7 +27175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>39</v>
       </c>
@@ -27254,7 +27258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>39</v>
       </c>
@@ -27337,7 +27341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>39</v>
       </c>
@@ -27420,7 +27424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>39</v>
       </c>
@@ -27503,7 +27507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>39</v>
       </c>
@@ -27586,7 +27590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>39</v>
       </c>
@@ -27669,7 +27673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>39</v>
       </c>
@@ -27752,7 +27756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>39</v>
       </c>
@@ -27835,7 +27839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -27918,7 +27922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -28001,7 +28005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>39</v>
       </c>
@@ -28084,7 +28088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>39</v>
       </c>
@@ -28167,7 +28171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>39</v>
       </c>
@@ -28250,7 +28254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -28333,7 +28337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>39</v>
       </c>
@@ -28416,7 +28420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>39</v>
       </c>
@@ -28499,7 +28503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -28582,7 +28586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>39</v>
       </c>
@@ -28665,7 +28669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>39</v>
       </c>
@@ -28748,7 +28752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>39</v>
       </c>
@@ -28831,7 +28835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -28914,7 +28918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>39</v>
       </c>
@@ -28997,7 +29001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>39</v>
       </c>
@@ -29080,7 +29084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>39</v>
       </c>
@@ -29163,7 +29167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -29246,7 +29250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>39</v>
       </c>
@@ -29329,7 +29333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>39</v>
       </c>
@@ -29412,7 +29416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -29495,7 +29499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>39</v>
       </c>
@@ -29578,7 +29582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>39</v>
       </c>
@@ -29661,7 +29665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>39</v>
       </c>
@@ -29744,7 +29748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>39</v>
       </c>
@@ -29827,7 +29831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>39</v>
       </c>
@@ -29910,7 +29914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>39</v>
       </c>
@@ -29993,7 +29997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>39</v>
       </c>
@@ -30076,7 +30080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>39</v>
       </c>
@@ -30159,7 +30163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>39</v>
       </c>
@@ -30242,7 +30246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>39</v>
       </c>
@@ -30325,7 +30329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>39</v>
       </c>
@@ -30408,7 +30412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>39</v>
       </c>
@@ -30491,7 +30495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>39</v>
       </c>
@@ -30574,7 +30578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>39</v>
       </c>
@@ -30657,7 +30661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>39</v>
       </c>
@@ -30740,7 +30744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>39</v>
       </c>
@@ -30823,7 +30827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>39</v>
       </c>
@@ -30906,7 +30910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>39</v>
       </c>
@@ -30989,7 +30993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>39</v>
       </c>
@@ -31072,7 +31076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>39</v>
       </c>
@@ -31155,7 +31159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>39</v>
       </c>
@@ -31238,7 +31242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>39</v>
       </c>
@@ -31321,7 +31325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>39</v>
       </c>
@@ -31404,7 +31408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>39</v>
       </c>
@@ -31487,7 +31491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>39</v>
       </c>
@@ -31570,7 +31574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>39</v>
       </c>
@@ -31653,7 +31657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>39</v>
       </c>
@@ -31736,7 +31740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>39</v>
       </c>
@@ -31819,7 +31823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>39</v>
       </c>
@@ -31902,7 +31906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>39</v>
       </c>
@@ -31985,7 +31989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>39</v>
       </c>
@@ -32068,7 +32072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>39</v>
       </c>
@@ -32151,7 +32155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>39</v>
       </c>
@@ -32234,7 +32238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>39</v>
       </c>
@@ -32317,7 +32321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>39</v>
       </c>
@@ -32400,7 +32404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>39</v>
       </c>
@@ -32483,7 +32487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>39</v>
       </c>
@@ -32649,7 +32653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>39</v>
       </c>
@@ -32815,7 +32819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>39</v>
       </c>
@@ -32981,7 +32985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>39</v>
       </c>
@@ -33147,7 +33151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>39</v>
       </c>
@@ -33313,7 +33317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>39</v>
       </c>
@@ -33479,7 +33483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>39</v>
       </c>
@@ -33645,7 +33649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>39</v>
       </c>
@@ -33811,7 +33815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>39</v>
       </c>
@@ -33977,7 +33981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -34143,7 +34147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -34309,7 +34313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -34475,7 +34479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -34641,7 +34645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -34807,7 +34811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -34973,7 +34977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>39</v>
       </c>
@@ -35139,7 +35143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>39</v>
       </c>
@@ -35305,7 +35309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>39</v>
       </c>
@@ -35471,7 +35475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>39</v>
       </c>
@@ -35637,7 +35641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>39</v>
       </c>
@@ -35803,7 +35807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>39</v>
       </c>
@@ -35969,7 +35973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>39</v>
       </c>
@@ -36135,7 +36139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>39</v>
       </c>
@@ -36301,7 +36305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>39</v>
       </c>
@@ -36467,7 +36471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>39</v>
       </c>
@@ -36633,7 +36637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>39</v>
       </c>
@@ -36799,7 +36803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>39</v>
       </c>
@@ -36965,7 +36969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>39</v>
       </c>
@@ -37131,7 +37135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>39</v>
       </c>
@@ -37297,7 +37301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>39</v>
       </c>
@@ -37463,7 +37467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>39</v>
       </c>
@@ -37629,7 +37633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>39</v>
       </c>
@@ -37795,7 +37799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>39</v>
       </c>
@@ -37961,7 +37965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>39</v>
       </c>
@@ -38127,7 +38131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>39</v>
       </c>
@@ -38293,7 +38297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>39</v>
       </c>
@@ -38459,7 +38463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>39</v>
       </c>
@@ -38625,7 +38629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="460" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>39</v>
       </c>
@@ -38791,7 +38795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>39</v>
       </c>
@@ -38957,7 +38961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>39</v>
       </c>
@@ -39123,7 +39127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>39</v>
       </c>
@@ -39289,7 +39293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>39</v>
       </c>
@@ -39455,7 +39459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>39</v>
       </c>
@@ -39621,7 +39625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>39</v>
       </c>
@@ -39787,7 +39791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>39</v>
       </c>
@@ -39953,7 +39957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>39</v>
       </c>
@@ -40119,7 +40123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>39</v>
       </c>
@@ -40285,7 +40289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>39</v>
       </c>
@@ -40451,7 +40455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>39</v>
       </c>
@@ -40617,7 +40621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>39</v>
       </c>
@@ -40783,7 +40787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>39</v>
       </c>
@@ -40949,7 +40953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>39</v>
       </c>
@@ -41115,7 +41119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>39</v>
       </c>
@@ -41281,7 +41285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>39</v>
       </c>
@@ -41447,7 +41451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>39</v>
       </c>
@@ -41613,7 +41617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>39</v>
       </c>
@@ -41779,7 +41783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>39</v>
       </c>
@@ -41945,7 +41949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>39</v>
       </c>
@@ -42111,7 +42115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>39</v>
       </c>
@@ -42277,7 +42281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>39</v>
       </c>
@@ -42443,7 +42447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>39</v>
       </c>
@@ -42609,7 +42613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>39</v>
       </c>
@@ -42775,7 +42779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>39</v>
       </c>
@@ -42941,7 +42945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>39</v>
       </c>
@@ -43108,6 +43112,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD513" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="nn"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="AdaSyn"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
